--- a/Spring,Spring Boot and MSA New TOC.xlsx
+++ b/Spring,Spring Boot and MSA New TOC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\clients\coforge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E5F66-5E0C-403E-A4CE-BFA59BD20DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582543C9-5127-48FE-A14C-C2E64C241951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4216C500-7F51-4B2F-A76E-A681CFEA0E0B}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -139,9 +137,6 @@
     <t>MongoDb Repositories, CRUD Operations</t>
   </si>
   <si>
-    <t>DDL and DML</t>
-  </si>
-  <si>
     <t>Messaging Systems</t>
   </si>
   <si>
@@ -347,6 +342,9 @@
   </si>
   <si>
     <t>POSTMAN Rest Client and Git Account Preferable</t>
+  </si>
+  <si>
+    <t>DDL and DML ,Spring Security, In Memory and DataSource security,JWT ,SSL and Method Level Security</t>
   </si>
 </sst>
 </file>
@@ -739,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88217-3BD3-4CB0-BE44-4D2342A44832}">
   <dimension ref="A2:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +840,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="5"/>
     </row>
@@ -889,52 +887,52 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -944,32 +942,32 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1008,73 +1006,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>34</v>
+    <row r="52" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1082,20 +1080,20 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,7 +1101,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1111,25 +1109,25 @@
         <v>24</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1137,37 +1135,37 @@
         <v>24</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1175,63 +1173,63 @@
         <v>24</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1239,20 +1237,20 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,20 +1260,20 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
